--- a/downloaded_files/CMPS405_Lecture-35567.xlsx
+++ b/downloaded_files/CMPS405_Lecture-35567.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -112,6 +112,15 @@
   </x:si>
   <x:si>
     <x:t>Tasneem Ahmad Ibrahim Mohamed Ghanim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220006</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جمانه تيمور محمد البكرى احمد محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jomana Timor Mohamed Elbakry Ahmed Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1220232</x:t>
@@ -587,7 +596,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E50" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E51" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -887,7 +896,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T50"/>
+  <x:dimension ref="A1:T51"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1266,7 +1275,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6643595718</x:v>
+        <x:v>45923.4751523495</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1298,7 +1307,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45913.7279227199</x:v>
+        <x:v>45906.6643595718</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1330,7 +1339,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6651274306</x:v>
+        <x:v>45913.7279227199</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1362,7 +1371,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6642546643</x:v>
+        <x:v>45906.6651274306</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1394,7 +1403,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.4161553241</x:v>
+        <x:v>45906.6642546643</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1426,7 +1435,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6653370023</x:v>
+        <x:v>45909.4161553241</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1458,7 +1467,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6650091435</x:v>
+        <x:v>45906.6653370023</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1490,7 +1499,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45913.721993206</x:v>
+        <x:v>45906.6650091435</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1522,7 +1531,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.664772338</x:v>
+        <x:v>45913.721993206</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1554,7 +1563,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45913.7259100694</x:v>
+        <x:v>45906.664772338</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1586,7 +1595,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6646794792</x:v>
+        <x:v>45913.7259100694</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1618,7 +1627,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4160912384</x:v>
+        <x:v>45906.6646794792</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1650,7 +1659,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6644298958</x:v>
+        <x:v>45906.4160912384</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1682,7 +1691,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45913.7293347569</x:v>
+        <x:v>45906.6644298958</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1714,7 +1723,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.7110228356</x:v>
+        <x:v>45913.7293347569</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1746,7 +1755,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6644033912</x:v>
+        <x:v>45914.7110228356</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1778,7 +1787,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6646892361</x:v>
+        <x:v>45906.6644033912</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1810,7 +1819,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45909.4149353009</x:v>
+        <x:v>45906.6646892361</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1842,7 +1851,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6644927894</x:v>
+        <x:v>45909.4149353009</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1874,7 +1883,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6647810185</x:v>
+        <x:v>45906.6644927894</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1906,7 +1915,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6642892014</x:v>
+        <x:v>45906.6647810185</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1938,7 +1947,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6653213773</x:v>
+        <x:v>45906.6642892014</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1970,7 +1979,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6650642708</x:v>
+        <x:v>45906.6653213773</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2002,7 +2011,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.6644706366</x:v>
+        <x:v>45906.6650642708</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2034,7 +2043,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45916.4933546644</x:v>
+        <x:v>45906.6644706366</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2066,7 +2075,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45913.7244644676</x:v>
+        <x:v>45916.4933546644</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2098,7 +2107,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.664712963</x:v>
+        <x:v>45913.7244644676</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2130,7 +2139,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45909.9091503472</x:v>
+        <x:v>45906.664712963</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2162,7 +2171,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.6644580208</x:v>
+        <x:v>45909.9091503472</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2194,7 +2203,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45913.5933806366</x:v>
+        <x:v>45906.6644580208</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2226,7 +2235,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45913.7317593403</x:v>
+        <x:v>45913.5933806366</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2258,7 +2267,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45916.0144003819</x:v>
+        <x:v>45913.7317593403</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2290,7 +2299,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.6648935185</x:v>
+        <x:v>45916.0144003819</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2322,7 +2331,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45906.6647476505</x:v>
+        <x:v>45906.6648935185</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2354,7 +2363,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45906.6647133102</x:v>
+        <x:v>45906.6647476505</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2386,7 +2395,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45913.7372066319</x:v>
+        <x:v>45906.6647133102</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2418,7 +2427,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45913.7205501968</x:v>
+        <x:v>45913.7372066319</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2450,7 +2459,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45917.0092657407</x:v>
+        <x:v>45913.7205501968</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2482,7 +2491,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45909.4378162384</x:v>
+        <x:v>45917.0092657407</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2514,7 +2523,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45909.4305780903</x:v>
+        <x:v>45909.4378162384</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2531,6 +2540,38 @@
       <x:c r="R50" s="2" t="s"/>
       <x:c r="S50" s="2" t="s"/>
       <x:c r="T50" s="2" t="s"/>
+    </x:row>
+    <x:row r="51" spans="1:20">
+      <x:c r="A51" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B51" s="2" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="C51" s="2" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="D51" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="E51" s="3">
+        <x:v>45909.4305780903</x:v>
+      </x:c>
+      <x:c r="F51" s="2" t="s"/>
+      <x:c r="G51" s="2" t="s"/>
+      <x:c r="H51" s="2" t="s"/>
+      <x:c r="I51" s="2" t="s"/>
+      <x:c r="J51" s="2" t="s"/>
+      <x:c r="K51" s="2" t="s"/>
+      <x:c r="L51" s="2" t="s"/>
+      <x:c r="M51" s="2" t="s"/>
+      <x:c r="N51" s="2" t="s"/>
+      <x:c r="O51" s="2" t="s"/>
+      <x:c r="P51" s="2" t="s"/>
+      <x:c r="Q51" s="2" t="s"/>
+      <x:c r="R51" s="2" t="s"/>
+      <x:c r="S51" s="2" t="s"/>
+      <x:c r="T51" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS405_Lecture-35567.xlsx
+++ b/downloaded_files/CMPS405_Lecture-35567.xlsx
@@ -1755,7 +1755,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45914.7110228356</x:v>
+        <x:v>45927.4167707176</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>

--- a/downloaded_files/CMPS405_Lecture-35567.xlsx
+++ b/downloaded_files/CMPS405_Lecture-35567.xlsx
@@ -2107,7 +2107,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45913.7244644676</x:v>
+        <x:v>45928.0489823264</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>

--- a/downloaded_files/CMPS405_Lecture-35567.xlsx
+++ b/downloaded_files/CMPS405_Lecture-35567.xlsx
@@ -2107,7 +2107,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45928.0489823264</x:v>
+        <x:v>45929.0714995023</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>

--- a/downloaded_files/CMPS405_Lecture-35567.xlsx
+++ b/downloaded_files/CMPS405_Lecture-35567.xlsx
@@ -84,7 +84,7 @@
     <x:t>احمد يحى سعد السيد نافع</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Yehya Saad Nafea</x:t>
+    <x:t>Ahmed Yehya Saad Elsayed Nafea</x:t>
   </x:si>
   <x:si>
     <x:t>1220226</x:t>
@@ -417,7 +417,7 @@
     <x:t>محمد هاني فوزي محمد الخطيب</x:t>
   </x:si>
   <x:si>
-    <x:t>MOHAMMED HANY FAWZY MOHAMMED ALKHATEEB</x:t>
+    <x:t>Mohammed Hany Fawzy Mohammed Alkhateeb</x:t>
   </x:si>
   <x:si>
     <x:t>1220101</x:t>

--- a/downloaded_files/CMPS405_Lecture-35567.xlsx
+++ b/downloaded_files/CMPS405_Lecture-35567.xlsx
@@ -264,7 +264,7 @@
     <x:t>عبدالرحمن مصطفى محمد رضوان احمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Abdelrahman Mostafa Mohammed radwan</x:t>
+    <x:t>ABDELRAHMAN MOSTAFA MOHAMMED RADWAN</x:t>
   </x:si>
   <x:si>
     <x:t>1220251</x:t>
@@ -426,7 +426,7 @@
     <x:t>مصطفى ايهاب حلمي محمد رضوان</x:t>
   </x:si>
   <x:si>
-    <x:t>Mostafa Ehab Helmy Mohamed Radwan</x:t>
+    <x:t>MOSTAFA EHAB HELMY MOHAMED RADWAN</x:t>
   </x:si>
   <x:si>
     <x:t>1220205</x:t>

--- a/downloaded_files/CMPS405_Lecture-35567.xlsx
+++ b/downloaded_files/CMPS405_Lecture-35567.xlsx
@@ -48,7 +48,7 @@
     <x:t>احمد سامح صلاح مصيلحى</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Sameh Salah</x:t>
+    <x:t>Ahmed Sameh Salah Moselhi</x:t>
   </x:si>
   <x:si>
     <x:t>1220115</x:t>
@@ -165,7 +165,7 @@
     <x:t>رنا احمد محمد سمير محمد فهمى الغرباوى</x:t>
   </x:si>
   <x:si>
-    <x:t>Rana ahmed mohamed samir mohamed fahmy elgharabawy</x:t>
+    <x:t>RANA AHMED MOHAMED SAMIR MOHAMED FAHMY EIGHARABAWY</x:t>
   </x:si>
   <x:si>
     <x:t>1220010</x:t>
@@ -210,7 +210,7 @@
     <x:t>عبد الرحمن على السيد محمد السيد الحديدى</x:t>
   </x:si>
   <x:si>
-    <x:t>Abdelrahman Ali ElSayed Mohamed</x:t>
+    <x:t>Abdul Rahman Ali Elsayed Muhammad Elsayed Alhadidi</x:t>
   </x:si>
   <x:si>
     <x:t>1220011</x:t>
@@ -372,7 +372,7 @@
     <x:t>محمد اشرف محمد كرم الله</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohamed Ashraf Mohamed</x:t>
+    <x:t>Mohamed Ashraf Mohamed Karam Allah</x:t>
   </x:si>
   <x:si>
     <x:t>4230189</x:t>
@@ -905,7 +905,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="39.620625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="56.100625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="60.720625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>

--- a/downloaded_files/CMPS405_Lecture-35567.xlsx
+++ b/downloaded_files/CMPS405_Lecture-35567.xlsx
@@ -282,7 +282,7 @@
     <x:t>عبدالله محمد عبدالحميد صبحى المهدى</x:t>
   </x:si>
   <x:si>
-    <x:t>Abdallah Mohamed ElMahdy</x:t>
+    <x:t>Abdallah Mohamed AbdelHameed Sobhy ElMahdy</x:t>
   </x:si>
   <x:si>
     <x:t>1220016</x:t>
